--- a/GroceryAppProject/src/main/resources/testdata.xlsx
+++ b/GroceryAppProject/src/main/resources/testdata.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizaj\git\projecttest\GroceryAppProject\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1818AFE2-2C7A-4D5F-B284-84E1CB4940BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1A20CD62-1BAD-4B28-A9C0-A87F18E00410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{127C9917-7570-4EED-8DD3-6B87FDBFE225}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{127C9917-7570-4EED-8DD3-6B87FDBFE225}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,8 @@
     <sheet name="Content" sheetId="4" r:id="rId4"/>
     <sheet name="manageslider" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -635,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703E946E-E31D-4137-99A0-F53F93FE51E9}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -663,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1A7582-E809-4C32-9CB3-DA563FAB50FF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
